--- a/data/Контрагенты.xlsx
+++ b/data/Контрагенты.xlsx
@@ -1,40 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayda\PycharmProjects\VKR\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA91EEF-CA4B-40AF-9ECA-AD9AEC37BA4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2136" yWindow="900" windowWidth="20904" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>sdfhdfg</t>
+  </si>
+  <si>
+    <t>dfsgsdfg</t>
+  </si>
+  <si>
+    <t>Контрагент</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>АНРО</t>
+  </si>
+  <si>
+    <t>ВетТрейд</t>
+  </si>
+  <si>
+    <t>wert</t>
+  </si>
+  <si>
+    <t>wret</t>
+  </si>
+  <si>
+    <t>fdsgdf</t>
+  </si>
+  <si>
+    <t>gfnhdgfn</t>
+  </si>
+  <si>
+    <t>bdf</t>
+  </si>
+  <si>
+    <t>sdfgs</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>dfgs</t>
+  </si>
+  <si>
+    <t>sfdg</t>
+  </si>
+  <si>
+    <t>dfgnbfg</t>
+  </si>
+  <si>
+    <t>dgf</t>
+  </si>
+  <si>
+    <t>nbdfgbnd</t>
+  </si>
+  <si>
+    <t>dfngdfgn</t>
+  </si>
+  <si>
+    <t>dfgn</t>
+  </si>
+  <si>
+    <t>erg</t>
+  </si>
+  <si>
+    <t>ert</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +123,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +446,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6802420243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6802420244</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/Контрагенты.xlsx
+++ b/data/Контрагенты.xlsx
@@ -33,10 +33,14 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill>
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -396,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -760,6 +764,2444 @@
         <v>375</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Контрагенты.xlsx
+++ b/data/Контрагенты.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9210" yWindow="360" windowWidth="22200" windowHeight="20010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="300" yWindow="2328" windowWidth="20904" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -24,22 +24,24 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill>
-        <fgColor rgb="00FFFFFF"/>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00FFFFFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,8 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,38 +404,38 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="5" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21.140625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="6.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14.5546875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="21.109375" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="7.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="19.5546875" bestFit="1" customWidth="1" min="8" max="8"/>
     <col width="11" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="16.7109375" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="20.85546875" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18.140625" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="30.42578125" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="12.5703125" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="7.85546875" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="21.7109375" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="20.88671875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="30.44140625" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="12.5546875" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="12.44140625" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="7.88671875" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="7.33203125" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="21.6640625" bestFit="1" customWidth="1" min="18" max="18"/>
     <col width="7" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="7.7109375" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="23.28515625" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="10.42578125" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="30.7109375" bestFit="1" customWidth="1" min="24" max="24"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="23.33203125" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="10.44140625" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="30.6640625" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2142,215 +2146,215 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" customFormat="1" s="1">
+      <c r="A17" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>2016-12</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>ВетТрейд</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="1" t="inlineStr">
         <is>
           <t>Мурманская станция</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>Мурманская обл</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>РФ</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="1" t="inlineStr">
         <is>
           <t>Северо-Запад</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" s="1" t="inlineStr">
         <is>
           <t>6802420244</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="1" t="inlineStr">
         <is>
           <t>С</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" s="1" t="inlineStr">
         <is>
           <t>Мурманск, Грибалевой 8</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="1" t="inlineStr">
         <is>
           <t>Прочие</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" s="1" t="inlineStr">
         <is>
           <t>Pet</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17" s="1" t="inlineStr">
         <is>
           <t>СББЖ</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Pugach</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
+          <t>Kucc</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="inlineStr">
         <is>
           <t>Vasotop P 0.625mg 3x28tab</t>
         </is>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="1" t="n">
         <v>153699</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T17" s="1" t="inlineStr">
         <is>
           <t>Vasotop</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" s="1" t="inlineStr">
         <is>
           <t>Pharma</t>
         </is>
       </c>
-      <c r="V17" t="n">
+      <c r="V17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17" s="1" t="n">
         <v>375</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" customFormat="1" s="1">
+      <c r="A18" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>2016-12</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="1" t="inlineStr">
         <is>
           <t>АНРО</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="1" t="inlineStr">
         <is>
           <t>Анима</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>Санкт-Петербург г</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
         <is>
           <t>РФ</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="1" t="inlineStr">
         <is>
           <t>Северо-Запад</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" s="1" t="inlineStr">
         <is>
           <t>6802420243</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" s="1" t="inlineStr">
         <is>
           <t>Санкт-Петербург, Грибалевой 7</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" s="1" t="inlineStr">
         <is>
           <t>АнимаТрейд</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="1" t="inlineStr">
         <is>
           <t>Vet</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P18" s="1" t="inlineStr">
         <is>
           <t>Прочие</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Pugach</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
+          <t>Kucc</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="1" t="n">
         <v>153698</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T18" s="1" t="inlineStr">
         <is>
           <t>Rabies (Alu)</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" s="1" t="inlineStr">
         <is>
           <t>Bio</t>
         </is>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18" s="1" t="n">
         <v>375</v>
       </c>
     </row>
@@ -2566,109 +2570,109 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" customFormat="1" s="2">
+      <c r="A21" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>2016-12</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>АНРО</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Анима</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург г</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>РФ</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Северо-Запад</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>6802420243</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург, Грибалевой 7</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" s="2" t="inlineStr">
         <is>
           <t>АнимаТрейд</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" s="2" t="inlineStr">
         <is>
           <t>Vet</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P21" s="2" t="inlineStr">
         <is>
           <t>Прочие</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Pugach</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Ivanov</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>153698</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>Rabies (Alu)</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U21" s="2" t="inlineStr">
         <is>
           <t>Bio</t>
         </is>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>375</v>
       </c>
     </row>
@@ -2778,109 +2782,109 @@
         <v>375</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" customFormat="1" s="2">
+      <c r="A23" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>2016-12</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>АНРО</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>Анима</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург г</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>РФ</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Северо-Запад</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>6802420243</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург, Грибалевой 7</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" s="2" t="inlineStr">
         <is>
           <t>АнимаТрейд</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" s="2" t="inlineStr">
         <is>
           <t>Vet</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>Прочие</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Pugach</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Ivanov</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
         </is>
       </c>
-      <c r="S23" t="n">
+      <c r="S23" s="2" t="n">
         <v>153698</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T23" s="2" t="inlineStr">
         <is>
           <t>Rabies (Alu)</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U23" s="2" t="inlineStr">
         <is>
           <t>Bio</t>
         </is>
       </c>
-      <c r="V23" t="n">
+      <c r="V23" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23" s="2" t="n">
         <v>375</v>
       </c>
     </row>
@@ -3199,6 +3203,218 @@
         <v>3</v>
       </c>
       <c r="X26" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>АНРО</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Анима</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>6802420243</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Грибалевой 7</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>АнимаТрейд</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Vet</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobivac Rabies 10x1ds </t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>153698</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Rabies (Alu)</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ВетТрейд</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>6802420244</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>153699</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" t="n">
         <v>375</v>
       </c>
     </row>
